--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285814.6710195043</v>
+        <v>285823.0390916321</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.2951306</v>
+        <v>18601640.52608541</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386103</v>
+        <v>9135685.687344899</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5779770.441843639</v>
+        <v>5591752.964920866</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>81.89993319654377</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>180.7485213359064</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>123.0673923170412</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760402</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>86.22404156268054</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>219.1562805948519</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.1930456148917</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>161.098104969931</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>79.25475695663353</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>73.60694759639458</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>167.225823014918</v>
       </c>
       <c r="D11" t="n">
-        <v>62.35955437834538</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429482</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>207.8410153638879</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>60.1753665055545</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>347.6088837131874</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>58.67748875058538</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>39.39633626821585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2059,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.8385386149596</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>66.72457055527012</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.08283277094802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>134.6953597735375</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.74049172938735</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>43.04574574106578</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>71.94762989914921</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>82.49270437610924</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>143.9530909131829</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>18.17128642851841</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>71.94762989914915</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>106.0910900114345</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>238.8869537746429</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>317.4045972290111</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2950,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>60.15466974967006</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>12.06219323947336</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>176.4523138321002</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>215.364412157547</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3269,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>201.7737255588815</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>208.0459955848482</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.07475062513851</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3475,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>11.20296397782709</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>71.94762989914921</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>124.429452383991</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031814</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>60.1753665055545</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>182.8474886167297</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>156.3466678774508</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>65.16360326142077</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>94.73608632623439</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>653.9732190116105</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C2" t="n">
-        <v>227.0724890249106</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D2" t="n">
-        <v>227.0724890249106</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E2" t="n">
-        <v>227.0724890249106</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F2" t="n">
-        <v>227.0724890249106</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>227.0724890249106</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4334,16 +4336,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4364,16 +4366,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888973</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.31048905672</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="Y2" t="n">
-        <v>653.9732190116105</v>
+        <v>1828.519902762723</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4415,13 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M3" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N3" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
         <v>1307.021068682275</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989122</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C4" t="n">
-        <v>144.2667933089716</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2667933089716</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="5">
@@ -4565,49 +4567,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>2137.816260984921</v>
       </c>
       <c r="W5" t="n">
-        <v>1145.737622806746</v>
+        <v>1741.424911285269</v>
       </c>
       <c r="X5" t="n">
-        <v>924.3676424079061</v>
+        <v>1329.704912453016</v>
       </c>
       <c r="Y5" t="n">
         <v>924.3676424079061</v>
@@ -4644,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>751.8547856608809</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
         <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4723,49 +4725,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502612</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1482.686776502612</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1482.686776502612</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
         <v>1317.84531628555</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.7908458642473</v>
+        <v>1725.007578113641</v>
       </c>
       <c r="C8" t="n">
-        <v>467.7908458642473</v>
+        <v>1298.106848126941</v>
       </c>
       <c r="D8" t="n">
-        <v>44.49822504924753</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2062.185893906891</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1704.69647903314</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.69647903314</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1292.976480200887</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.6392101557774</v>
+        <v>2144.855942405171</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1030.057236569971</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4972,13 +4974,13 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
         <v>2224.911252462377</v>
@@ -4987,25 +4989,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.436857207411</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707716</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1531.252408707716</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1256.400004880229</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1256.400004880229</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1030.057236569971</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>809.6951148527796</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="C11" t="n">
-        <v>809.6951148527796</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D11" t="n">
-        <v>746.7056659857641</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E11" t="n">
-        <v>746.7056659857641</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F11" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
         <v>44.49822504924753</v>
@@ -5042,22 +5044,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L11" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M11" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L11" t="n">
-        <v>1006.023847611597</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1006.023847611597</v>
-      </c>
       <c r="N11" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O11" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
         <v>2107.354917580474</v>
@@ -5066,25 +5068,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U11" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V11" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W11" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X11" t="n">
-        <v>1229.54347914431</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y11" t="n">
-        <v>1229.54347914431</v>
+        <v>2224.911252462377</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M12" t="n">
-        <v>44.49822504924753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N12" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O12" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P12" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.5772905989122</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>96.60472747782816</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1805.062888170846</v>
+        <v>532.1821535264065</v>
       </c>
       <c r="C14" t="n">
-        <v>1595.122468611364</v>
+        <v>105.2814235397066</v>
       </c>
       <c r="D14" t="n">
-        <v>1171.829847796364</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E14" t="n">
-        <v>1171.829847796364</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F14" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G14" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
         <v>44.49822504924753</v>
@@ -5276,28 +5278,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L14" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M14" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N14" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O14" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462377</v>
@@ -5306,22 +5308,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.911252462377</v>
+        <v>937.5194235715162</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.911252462377</v>
+        <v>532.1821535264065</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5363,19 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L15" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M15" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q15" t="n">
         <v>1853.185855629757</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
         <v>44.49822504924753</v>
@@ -5437,49 +5439,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F17" t="n">
         <v>44.49822504924753</v>
@@ -5513,28 +5515,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
         <v>2224.911252462377</v>
@@ -5546,19 +5548,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V17" t="n">
-        <v>2165.64106180522</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W17" t="n">
-        <v>2165.64106180522</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X17" t="n">
-        <v>2165.64106180522</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N18" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O18" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>961.4223778677166</v>
+        <v>1067.705058372564</v>
       </c>
       <c r="C19" t="n">
-        <v>789.4498147466326</v>
+        <v>895.7324952514803</v>
       </c>
       <c r="D19" t="n">
-        <v>626.1330418734033</v>
+        <v>732.415722378251</v>
       </c>
       <c r="E19" t="n">
-        <v>459.9248360262568</v>
+        <v>566.2075165311045</v>
       </c>
       <c r="F19" t="n">
-        <v>288.0630618008172</v>
+        <v>394.3457423056649</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>228.088772599897</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>84.29250410805142</v>
       </c>
       <c r="I19" t="n">
         <v>44.49822504924753</v>
@@ -5698,25 +5700,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U19" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V19" t="n">
-        <v>1372.637375483782</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W19" t="n">
-        <v>1372.637375483782</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X19" t="n">
-        <v>1372.637375483782</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.588346579782</v>
+        <v>1257.87102708463</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1753.37893010211</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="C20" t="n">
-        <v>1326.47820011541</v>
+        <v>1386.290523643424</v>
       </c>
       <c r="D20" t="n">
-        <v>903.1855793004106</v>
+        <v>962.9979028284242</v>
       </c>
       <c r="E20" t="n">
-        <v>477.2086394482681</v>
+        <v>537.0209629762818</v>
       </c>
       <c r="F20" t="n">
-        <v>52.08445763766833</v>
+        <v>111.896781165682</v>
       </c>
       <c r="G20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>52.08445763766833</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>52.08445763766833</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>696.6296209038139</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M20" t="n">
-        <v>1341.174784169959</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N20" t="n">
-        <v>1985.719947436105</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O20" t="n">
-        <v>2486.666547001514</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P20" t="n">
-        <v>2486.666547001514</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q20" t="n">
-        <v>2486.666547001514</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X20" t="n">
-        <v>2192.502883051164</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y20" t="n">
-        <v>2173.22729439364</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1362.658742334362</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>1245.152838851867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>1141.312880367152</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>1036.610946640089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>942.9651163229934</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>848.9113445405974</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>795.535251302907</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>795.535251302907</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
-        <v>1067.232740582498</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K21" t="n">
-        <v>1657.717667150838</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L21" t="n">
-        <v>1877.658408532568</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M21" t="n">
-        <v>1877.658408532568</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N21" t="n">
-        <v>2522.203571798713</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O21" t="n">
-        <v>2522.203571798713</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P21" t="n">
-        <v>2522.203571798713</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>2522.203571798713</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>2604.222881883416</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>2522.898634444671</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>2381.018698742349</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>2196.250502661986</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1991.277363801252</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1794.75598663447</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>1631.278640401132</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>1491.585751754425</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1135.265580161905</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C22" t="n">
-        <v>963.2930170408212</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D22" t="n">
-        <v>799.9762441675919</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E22" t="n">
-        <v>633.7680383204454</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F22" t="n">
-        <v>461.9062640950058</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>295.649294389238</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>151.8530258973924</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5757858618263</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>336.1033870676636</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>690.7927083620843</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1081.978503332335</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.470014208371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1814.898142888134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.497354810035</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2232.497485050797</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2232.497485050797</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T22" t="n">
-        <v>2232.497485050797</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U22" t="n">
-        <v>1952.313036551101</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V22" t="n">
-        <v>1670.60156915913</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W22" t="n">
-        <v>1395.749165331643</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X22" t="n">
-        <v>1153.185268777448</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.265580161905</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2238.11053622709</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C23" t="n">
-        <v>1811.20980624039</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D23" t="n">
-        <v>1387.91718542539</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E23" t="n">
-        <v>961.940245573248</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F23" t="n">
-        <v>536.8160637626482</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G23" t="n">
-        <v>132.4770013520969</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K23" t="n">
-        <v>804.5047580739941</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L23" t="n">
-        <v>1734.129805693271</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M23" t="n">
-        <v>2510.870461405338</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>3487.121519892039</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O23" t="n">
-        <v>4332.266170042851</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P23" t="n">
-        <v>4332.266170042851</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q23" t="n">
-        <v>4332.266170042851</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>4228.896933969386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>4228.896933969386</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V23" t="n">
-        <v>3871.407519095636</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W23" t="n">
-        <v>3475.016169395983</v>
+        <v>2152.236878826872</v>
       </c>
       <c r="X23" t="n">
-        <v>3063.29617056373</v>
+        <v>1740.51687999462</v>
       </c>
       <c r="Y23" t="n">
-        <v>2657.95890051862</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>96.44309306040689</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>96.44309306040689</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K24" t="n">
-        <v>96.44309306040689</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L24" t="n">
-        <v>933.241901143313</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M24" t="n">
-        <v>1181.486363640507</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N24" t="n">
-        <v>1181.486363640507</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O24" t="n">
-        <v>1181.486363640507</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.684080679005</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2845.439489816109</v>
+        <v>729.0902991667033</v>
       </c>
       <c r="C25" t="n">
-        <v>2845.439489816109</v>
+        <v>557.1177360456193</v>
       </c>
       <c r="D25" t="n">
-        <v>2845.439489816109</v>
+        <v>393.80096317239</v>
       </c>
       <c r="E25" t="n">
-        <v>2679.231283968962</v>
+        <v>227.5927573252435</v>
       </c>
       <c r="F25" t="n">
-        <v>2679.231283968962</v>
+        <v>227.5927573252435</v>
       </c>
       <c r="G25" t="n">
-        <v>2512.974314263194</v>
+        <v>227.5927573252435</v>
       </c>
       <c r="H25" t="n">
-        <v>2369.178045771348</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>2269.409477511625</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>2326.900805735783</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>2553.42840694162</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>2908.117728236041</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>3299.303523206292</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>3676.795034082327</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>4032.22316276209</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>4322.822374683991</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>4304.415342386184</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>4061.075994612085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U25" t="n">
-        <v>4061.075994612085</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V25" t="n">
-        <v>3779.364527220114</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W25" t="n">
-        <v>3504.512123392627</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X25" t="n">
-        <v>3261.948226838432</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y25" t="n">
-        <v>3035.605458528174</v>
+        <v>919.256267878769</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1393.342889338594</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="C26" t="n">
-        <v>966.4421593518939</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D26" t="n">
-        <v>543.1495385368942</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E26" t="n">
-        <v>117.1725986847517</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
         <v>44.49822504924753</v>
@@ -6227,22 +6229,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K26" t="n">
-        <v>549.9383681074144</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.603903091853</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N26" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q26" t="n">
         <v>2107.354917580474</v>
@@ -6257,19 +6259,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462377</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.191253630124</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y26" t="n">
-        <v>1813.191253630124</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K27" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M27" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
-        <v>595.1637600336857</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6412,19 +6414,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V28" t="n">
-        <v>2061.60438497749</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1425.008033468817</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>1425.008033468817</v>
       </c>
       <c r="Y28" t="n">
         <v>1317.84531628555</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>792.0096593076759</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C29" t="n">
-        <v>365.108929320976</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D29" t="n">
-        <v>365.108929320976</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E29" t="n">
-        <v>365.108929320976</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F29" t="n">
-        <v>365.108929320976</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H29" t="n">
         <v>44.49822504924753</v>
@@ -6461,22 +6463,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M29" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N29" t="n">
+        <v>549.9383681074144</v>
+      </c>
+      <c r="O29" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1100.603903091853</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P29" t="n">
         <v>1651.269438076291</v>
@@ -6494,19 +6496,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U29" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V29" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W29" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X29" t="n">
-        <v>1197.346929352786</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y29" t="n">
-        <v>792.0096593076759</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C30" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>687.9211111614576</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K30" t="n">
-        <v>1238.586646145896</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L30" t="n">
-        <v>1238.586646145896</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M30" t="n">
-        <v>1238.586646145896</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N30" t="n">
-        <v>1238.586646145896</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O30" t="n">
-        <v>1674.245717477938</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P30" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S30" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T30" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U30" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V30" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W30" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X30" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y30" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.9957668907073</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C31" t="n">
-        <v>374.0232037696233</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D31" t="n">
-        <v>210.706430896394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E31" t="n">
         <v>44.49822504924753</v>
@@ -6643,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707715</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.540941315744</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>974.6885374882565</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>962.5045039130309</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.161735602773</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1745.792697513689</v>
+        <v>1050.364568711263</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.891967526989</v>
+        <v>1050.364568711263</v>
       </c>
       <c r="D32" t="n">
-        <v>895.5993467119897</v>
+        <v>627.0719478962637</v>
       </c>
       <c r="E32" t="n">
-        <v>469.6224068598473</v>
+        <v>627.0719478962637</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G32" t="n">
         <v>44.49822504924753</v>
@@ -6698,25 +6700,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O32" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
         <v>2107.354917580474</v>
@@ -6734,16 +6736,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X32" t="n">
-        <v>2165.64106180522</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y32" t="n">
-        <v>2165.64106180522</v>
+        <v>1050.364568711263</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C33" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J33" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K33" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L33" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M33" t="n">
-        <v>1123.5801824935</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N33" t="n">
-        <v>1123.5801824935</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O33" t="n">
-        <v>1674.245717477938</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P33" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q33" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S33" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T33" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U33" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V33" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W33" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X33" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y33" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
         <v>44.49822504924753</v>
@@ -6883,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021.099408463506</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C35" t="n">
-        <v>2021.099408463506</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D35" t="n">
-        <v>1597.806787648507</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E35" t="n">
-        <v>1171.829847796364</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F35" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G35" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L35" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M35" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N35" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O35" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
         <v>2224.911252462377</v>
@@ -6965,22 +6967,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V35" t="n">
-        <v>2021.099408463506</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W35" t="n">
-        <v>2021.099408463506</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X35" t="n">
-        <v>2021.099408463506</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="Y35" t="n">
-        <v>2021.099408463506</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L36" t="n">
-        <v>595.1637600336857</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M36" t="n">
-        <v>1145.829295018124</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N36" t="n">
-        <v>1696.494830002562</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573485</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524009</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320252</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065856</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008178</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089722</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002918</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.502328002918</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.502328002918</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>1202.502328002918</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.668515703089</v>
+        <v>55.8143502793759</v>
       </c>
       <c r="C38" t="n">
-        <v>893.7677857163897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E38" t="n">
         <v>44.49822504924753</v>
@@ -7172,19 +7174,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>455.3583126271592</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O38" t="n">
         <v>2107.354917580474</v>
@@ -7199,25 +7201,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>2152.236878826872</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X38" t="n">
-        <v>1740.51687999462</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.51687999462</v>
+        <v>475.662714570906</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7250,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N39" t="n">
-        <v>595.1637600336857</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O39" t="n">
         <v>756.3555336978366</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E40" t="n">
         <v>626.1818057320246</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.72680396268</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>1944.72680396268</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.874400135193</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>532.1821535264065</v>
+        <v>1620.368455224655</v>
       </c>
       <c r="C41" t="n">
-        <v>105.2814235397066</v>
+        <v>1193.467725237955</v>
       </c>
       <c r="D41" t="n">
-        <v>105.2814235397066</v>
+        <v>1193.467725237955</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H41" t="n">
         <v>44.49822504924753</v>
@@ -7409,25 +7411,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M41" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N41" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O41" t="n">
-        <v>1768.825772958194</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P41" t="n">
-        <v>1768.825772958194</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q41" t="n">
         <v>2224.911252462377</v>
@@ -7439,22 +7441,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U41" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V41" t="n">
-        <v>1745.630772103422</v>
+        <v>2040.216819516185</v>
       </c>
       <c r="W41" t="n">
-        <v>1349.239422403769</v>
+        <v>2040.216819516185</v>
       </c>
       <c r="X41" t="n">
-        <v>937.5194235715162</v>
+        <v>2040.216819516185</v>
       </c>
       <c r="Y41" t="n">
-        <v>532.1821535264065</v>
+        <v>2040.216819516185</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L42" t="n">
-        <v>44.49822504924753</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M42" t="n">
-        <v>201.1892506764427</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N42" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
         <v>44.49822504924753</v>
@@ -7597,22 +7599,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.91199246082674</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="C44" t="n">
-        <v>36.91199246082674</v>
+        <v>1386.290523643424</v>
       </c>
       <c r="D44" t="n">
-        <v>36.91199246082674</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="E44" t="n">
-        <v>36.91199246082674</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L44" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M44" t="n">
-        <v>950.4838058662885</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N44" t="n">
-        <v>1389.514143537154</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O44" t="n">
-        <v>1389.514143537154</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555523</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V44" t="n">
-        <v>904.4624336817722</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W44" t="n">
-        <v>508.071083982119</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X44" t="n">
-        <v>442.2492625059364</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.91199246082674</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J45" t="n">
-        <v>36.9119924608267</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K45" t="n">
-        <v>493.6978991635576</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L45" t="n">
-        <v>950.4838058662884</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M45" t="n">
-        <v>950.4838058662884</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N45" t="n">
-        <v>950.4838058662884</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.6050089519726</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082674</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.425962247645</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1628.425962247645</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1348.241513747949</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1066.530046355978</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>791.6776425284911</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>549.1137459742962</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>322.7709776640382</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830994</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8061,16 +8063,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>465.9489063640447</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>462.4589018454972</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.1852249800525</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>268.1828480767085</v>
+        <v>462.5747547263934</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8544,13 +8546,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P12" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
         <v>593.6590760150259</v>
@@ -8942,13 +8944,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>180.7888499740228</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
@@ -9176,7 +9178,7 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366446</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9185,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>179.6167914733348</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>689.367762903477</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>688.4869833702859</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N20" t="n">
-        <v>688.3353433053002</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>543.3976255837097</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>244.6774517462799</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>672.3987486843957</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>822.0177838207114</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9720,10 +9722,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M24" t="n">
-        <v>273.8487628327258</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,10 +9734,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>173.498939971083</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,25 +9877,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>546.3101998434627</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L26" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O27" t="n">
-        <v>268.8396510847011</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>548.8576414812763</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O29" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10194,19 +10196,19 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263934</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O30" t="n">
-        <v>463.2315577343863</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,28 +10427,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>178.8848775931268</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104035</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L35" t="n">
-        <v>453.322231905261</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10670,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767084</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N38" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,16 +10907,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O39" t="n">
-        <v>185.9918631203545</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P39" t="n">
         <v>577.9986543204228</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
-        <v>110.4525178970659</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3705437721211</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>480.7446103807745</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>465.9293750477954</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11461,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>333.749947452071</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>114.1411734047991</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22604,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47.18544517283196</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>267.6904791623325</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>188.4465182490783</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.88629501226364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>94.67325533962085</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>322.029140388025</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>96.64588989347857</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,22 +23229,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>255.4058996719149</v>
       </c>
       <c r="D11" t="n">
-        <v>356.7001402285043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23321,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402022</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>214.790707322945</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>358.8843281012952</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23546,22 +23548,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>68.0409969354273</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23786,19 +23788,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>295.2370319744276</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23956,7 +23958,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.240802012195729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>333.5711012311757</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2010645737105</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>106.2105945228215</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.338848897768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>251.8439489996397</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24257,22 +24259,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>320.4798063035074</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>59.8656014308179</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>24.48060609287356</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>404.4604362583145</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>348.9253100933446</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24652,22 +24654,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>117.9882506157208</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>183.74476891219</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24692,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>82.89107455743471</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24734,10 +24736,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.0760643491796</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>244.4206261603936</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24974,16 +24976,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>63.52994056050443</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25157,13 +25159,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,19 +25207,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>152.1407951661315</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>199.556803259082</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.1895583998065</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>53.328125375718</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>411.4287587090058</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>320.4798063035074</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>115.7088052046619</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>165.7641609568372</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>361.5418039480665</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25679,22 +25681,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>171.0670321082833</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>262.7130267293988</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>342.4391955825095</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>75.51675116363876</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26032,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034949</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525402.5247053591</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>728872.1149236414</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034948</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483585.0141034951</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483585.0141034948</v>
+        <v>483585.0141034949</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034949</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429159.2088478021</v>
+        <v>483585.014103495</v>
       </c>
     </row>
   </sheetData>
@@ -26317,34 +26319,34 @@
         <v>152470.9723568845</v>
       </c>
       <c r="D2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="E2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="F2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="G2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="H2" t="n">
-        <v>165653.0240342835</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="I2" t="n">
-        <v>229792.3430524035</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="J2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="K2" t="n">
-        <v>152470.9723568846</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="L2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="M2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="N2" t="n">
         <v>152470.9723568845</v>
@@ -26353,7 +26355,7 @@
         <v>152470.9723568845</v>
       </c>
       <c r="P2" t="n">
-        <v>135314.4327365511</v>
+        <v>152470.9723568845</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>43571.76943387372</v>
+      </c>
+      <c r="C4" t="n">
         <v>43571.76943387373</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43571.76943387372</v>
       </c>
       <c r="D4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="E4" t="n">
+        <v>43571.76943387372</v>
+      </c>
+      <c r="F4" t="n">
         <v>43571.76943387373</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43571.76943387372</v>
       </c>
       <c r="G4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="H4" t="n">
-        <v>47352.62974788016</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="I4" t="n">
-        <v>65748.99260380682</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="J4" t="n">
         <v>43571.76943387373</v>
@@ -26451,13 +26453,13 @@
         <v>43571.76943387373</v>
       </c>
       <c r="N4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="O4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="P4" t="n">
-        <v>38650.95123624726</v>
+        <v>43571.76943387373</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>39584.18780462793</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>67637.30207485624</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
         <v>33818.65103742812</v>
@@ -26509,7 +26511,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-144951.7815291546</v>
       </c>
       <c r="C6" t="n">
-        <v>41452.95188558269</v>
+        <v>41452.95188558268</v>
       </c>
       <c r="D6" t="n">
-        <v>41452.95188558259</v>
+        <v>41452.95188558268</v>
       </c>
       <c r="E6" t="n">
+        <v>75080.5518855827</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75080.55188558271</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75080.55188558262</v>
+      </c>
+      <c r="H6" t="n">
         <v>75080.55188558265</v>
       </c>
-      <c r="F6" t="n">
-        <v>75080.55188558264</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>75080.55188558265</v>
       </c>
-      <c r="H6" t="n">
-        <v>53130.78362616006</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-26289.87596595337</v>
-      </c>
       <c r="J6" t="n">
-        <v>75080.55188558265</v>
+        <v>-70453.11804923386</v>
       </c>
       <c r="K6" t="n">
+        <v>75080.55188558268</v>
+      </c>
+      <c r="L6" t="n">
+        <v>75080.55188558268</v>
+      </c>
+      <c r="M6" t="n">
         <v>75080.55188558271</v>
       </c>
-      <c r="L6" t="n">
-        <v>75080.55188558265</v>
-      </c>
-      <c r="M6" t="n">
-        <v>75080.55188558265</v>
-      </c>
       <c r="N6" t="n">
+        <v>75080.55188558267</v>
+      </c>
+      <c r="O6" t="n">
         <v>75080.55188558262</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>75080.55188558268</v>
-      </c>
-      <c r="P6" t="n">
-        <v>68610.36723007556</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>1112.455626231188</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
         <v>556.2278131155941</v>
@@ -26829,7 +26831,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34781,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>444.605878150503</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>440.0596680121639</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>533.7539620806207</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>245.6677613624789</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L11" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
         <v>556.2278131155941</v>
@@ -35662,13 +35664,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="M15" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806206</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>651.0557204708541</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>506.0066662276855</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>222.1623650320503</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>651.0557204708541</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>784.5865209212797</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M24" t="n">
-        <v>250.7519823203978</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>510.5455990486533</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L26" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L27" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O27" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O29" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36914,19 +36916,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O30" t="n">
-        <v>440.0596680121641</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="L35" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L35" t="n">
-        <v>415.0101894726381</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N38" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>162.8199733981322</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P39" t="n">
         <v>556.2278131155941</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O41" t="n">
-        <v>73.06155854104179</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>443.4649875463285</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285823.0390916321</v>
+        <v>280662.6465459834</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18601640.52608541</v>
+        <v>18601640.5260854</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9135685.687344899</v>
+        <v>9135685.687344901</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.89993319654377</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>108.8836656288775</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>91.12459838203749</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>123.9086344760402</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>24.21480679858957</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>86.22404156268054</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840964</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.25475695663353</v>
+        <v>384.509602741014</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>238.5792768260961</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>260.4446813871647</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>167.225823014918</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1381,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>109.1299891499311</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>60.1753665055545</v>
+        <v>153.3694919077184</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429482</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.6088837131874</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>184.1776018396783</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.39633626821585</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>66.72457055527012</v>
+        <v>94.13968570245075</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>134.6953597735375</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2326,10 +2326,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>377.0710380186155</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>71.94762989914921</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>82.49270437610924</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>18.17128642851841</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>44.83536881041957</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.0910900114345</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>238.8869537746429</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>357.9865921890338</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>60.15466974967006</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>176.4523138321002</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>139.2702769432207</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>215.364412157547</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>208.0459955848482</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="36">
@@ -3432,13 +3432,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>104.6805223578579</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>11.20296397782709</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>144.889772114531</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.31517967031814</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>285.8735237895857</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>182.8474886167297</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.44420510686369</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>156.3466678774508</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>84.14510619320924</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.792697513689</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.891967526989</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="D2" t="n">
-        <v>895.5993467119897</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="E2" t="n">
-        <v>469.6224068598473</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X2" t="n">
-        <v>1828.519902762723</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y2" t="n">
-        <v>1828.519902762723</v>
+        <v>907.0953397585014</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O3" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.1145108219148</v>
+        <v>976.1595596926597</v>
       </c>
       <c r="C4" t="n">
-        <v>712.1419477008308</v>
+        <v>804.1869965715757</v>
       </c>
       <c r="D4" t="n">
-        <v>548.8251748276015</v>
+        <v>640.8702236983464</v>
       </c>
       <c r="E4" t="n">
-        <v>382.616968980455</v>
+        <v>474.6620178511999</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7551947550154</v>
+        <v>302.8002436257603</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>136.5432739199925</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>2099.751015617891</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1818.03954822592</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1543.187144398433</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1300.623247844238</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y4" t="n">
-        <v>1074.28047953398</v>
+        <v>976.1595596926597</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504.5192781163761</v>
+        <v>931.4861803379836</v>
       </c>
       <c r="C5" t="n">
-        <v>504.5192781163761</v>
+        <v>931.4861803379836</v>
       </c>
       <c r="D5" t="n">
-        <v>504.5192781163761</v>
+        <v>508.1935595229838</v>
       </c>
       <c r="E5" t="n">
-        <v>504.5192781163761</v>
+        <v>508.1935595229838</v>
       </c>
       <c r="F5" t="n">
-        <v>79.39509630577632</v>
+        <v>508.1935595229838</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>103.8544971124325</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2137.816260984921</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.424911285269</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.704912453016</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y5" t="n">
-        <v>924.3676424079061</v>
+        <v>1351.334544629514</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4725,46 +4725,46 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1726.026124276714</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1726.026124276714</v>
       </c>
       <c r="X7" t="n">
         <v>1544.188084595808</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1725.007578113641</v>
+        <v>1335.759070513627</v>
       </c>
       <c r="C8" t="n">
-        <v>1298.106848126941</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="D8" t="n">
-        <v>874.8142273119413</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="E8" t="n">
-        <v>448.8372874597989</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4816,10 +4816,10 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O8" t="n">
         <v>1508.432753835019</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.911252462377</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="Y8" t="n">
-        <v>2144.855942405171</v>
+        <v>1335.759070513627</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>488.1011306554951</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4974,40 +4974,40 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>1983.922083951167</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>1703.737635451472</v>
       </c>
       <c r="V10" t="n">
-        <v>1961.835816717766</v>
+        <v>1422.026168059501</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>1147.173764232014</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>904.6098676778188</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>678.2670993675608</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2224.911252462377</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="C11" t="n">
-        <v>2055.996279720035</v>
+        <v>928.6646569729185</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.703658905035</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.726719052893</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F11" t="n">
-        <v>781.6025372422929</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
         <v>79.39509630577632</v>
@@ -5044,16 +5044,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M11" t="n">
-        <v>957.7672188505812</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N11" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O11" t="n">
         <v>1651.269438076291</v>
@@ -5068,25 +5068,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>1751.956736659271</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.911252462377</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.911252462377</v>
+        <v>1355.565386959618</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M12" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
@@ -5220,31 +5220,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>532.1821535264065</v>
       </c>
       <c r="C14" t="n">
-        <v>105.2814235397066</v>
+        <v>532.1821535264065</v>
       </c>
       <c r="D14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O14" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2152.580309506745</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462377</v>
@@ -5354,31 +5354,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N15" t="n">
-        <v>1853.185855629757</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989122</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782816</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
         <v>44.49822504924753</v>
@@ -5439,49 +5439,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668685</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894585</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394889</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002918</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754307</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212358</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109778</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.49822504924753</v>
+        <v>1082.561118502788</v>
       </c>
       <c r="C17" t="n">
-        <v>44.49822504924753</v>
+        <v>655.660388516088</v>
       </c>
       <c r="D17" t="n">
-        <v>44.49822504924753</v>
+        <v>655.660388516088</v>
       </c>
       <c r="E17" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
         <v>44.49822504924753</v>
@@ -5518,49 +5518,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N17" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>1966.556343058789</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V17" t="n">
-        <v>1609.066928185038</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W17" t="n">
-        <v>1212.675578485385</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X17" t="n">
-        <v>800.9555796531324</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y17" t="n">
-        <v>395.6183096080227</v>
+        <v>1082.561118502788</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M18" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N18" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O18" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1067.705058372564</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>895.7324952514803</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>732.415722378251</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>566.2075165311045</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>394.3457423056649</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>228.088772599897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>84.29250410805142</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
         <v>44.49822504924753</v>
@@ -5700,25 +5700,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.213795394888</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>1484.213795394888</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>1484.213795394888</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>1257.87102708463</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1813.191253630124</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C20" t="n">
-        <v>1386.290523643424</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="D20" t="n">
-        <v>962.9979028284242</v>
+        <v>564.7129984784845</v>
       </c>
       <c r="E20" t="n">
-        <v>537.0209629762818</v>
+        <v>564.7129984784845</v>
       </c>
       <c r="F20" t="n">
-        <v>111.896781165682</v>
+        <v>139.5888166678847</v>
       </c>
       <c r="G20" t="n">
         <v>44.49822504924753</v>
@@ -5752,22 +5752,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L20" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M20" t="n">
-        <v>1768.825772958194</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N20" t="n">
-        <v>1768.825772958194</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O20" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P20" t="n">
         <v>1768.825772958194</v>
@@ -5797,7 +5797,7 @@
         <v>1813.191253630124</v>
       </c>
       <c r="Y20" t="n">
-        <v>1813.191253630124</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N21" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.9957668907073</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C22" t="n">
-        <v>374.0232037696233</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D22" t="n">
-        <v>210.706430896394</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E22" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
         <v>44.49822504924753</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.81672018638</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U22" t="n">
-        <v>1761.632271686684</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.920804294713</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W22" t="n">
-        <v>1205.068400467226</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X22" t="n">
-        <v>962.5045039130309</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.161735602773</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1320.668515703089</v>
+        <v>1700.695594043987</v>
       </c>
       <c r="C23" t="n">
-        <v>893.7677857163897</v>
+        <v>1273.794864057287</v>
       </c>
       <c r="D23" t="n">
-        <v>470.47516490139</v>
+        <v>850.5022432422872</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F23" t="n">
         <v>44.49822504924753</v>
@@ -5989,25 +5989,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N23" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O23" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
         <v>2107.354917580474</v>
@@ -6016,25 +6016,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W23" t="n">
-        <v>2152.236878826872</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X23" t="n">
-        <v>1740.51687999462</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y23" t="n">
-        <v>1740.51687999462</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M24" t="n">
-        <v>1153.275937980036</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N24" t="n">
-        <v>1153.275937980036</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>1153.275937980036</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P24" t="n">
-        <v>1703.941472964474</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.0902991667033</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C25" t="n">
-        <v>557.1177360456193</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D25" t="n">
-        <v>393.80096317239</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E25" t="n">
-        <v>227.5927573252435</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>227.5927573252435</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>227.5927573252435</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
         <v>44.49822504924753</v>
@@ -6177,22 +6177,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.72680396268</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V25" t="n">
-        <v>1663.015336570709</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W25" t="n">
-        <v>1388.162932743222</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X25" t="n">
-        <v>1145.599036189027</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y25" t="n">
-        <v>919.256267878769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>395.6183096080227</v>
+        <v>1595.975226652906</v>
       </c>
       <c r="C26" t="n">
-        <v>377.2634748317415</v>
+        <v>1595.975226652906</v>
       </c>
       <c r="D26" t="n">
-        <v>377.2634748317415</v>
+        <v>1172.682605837907</v>
       </c>
       <c r="E26" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F26" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G26" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596036</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N26" t="n">
-        <v>2107.354917580474</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
         <v>2107.354917580474</v>
@@ -6253,25 +6253,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>1609.066928185038</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W26" t="n">
-        <v>1212.675578485385</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X26" t="n">
-        <v>800.9555796531324</v>
+        <v>1595.975226652906</v>
       </c>
       <c r="Y26" t="n">
-        <v>395.6183096080227</v>
+        <v>1595.975226652906</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N27" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P27" t="n">
         <v>1853.185855629757</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="I28" t="n">
         <v>44.49822504924753</v>
@@ -6417,19 +6417,19 @@
         <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.571904688275</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.860437296304</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W28" t="n">
-        <v>1425.008033468817</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.008033468817</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>988.0056192934842</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="C29" t="n">
-        <v>746.7056659857641</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="D29" t="n">
-        <v>746.7056659857641</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="E29" t="n">
         <v>746.7056659857641</v>
@@ -6466,13 +6466,13 @@
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L29" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M29" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N29" t="n">
         <v>549.9383681074144</v>
@@ -6490,25 +6490,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.191253630124</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="Y29" t="n">
-        <v>1407.853983585014</v>
+        <v>1108.308284358525</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N30" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O30" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C31" t="n">
-        <v>207.8149979224768</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D31" t="n">
-        <v>44.49822504924753</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924753</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924753</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="I31" t="n">
         <v>44.49822504924753</v>
@@ -6645,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1050.364568711263</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C32" t="n">
-        <v>1050.364568711263</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D32" t="n">
-        <v>627.0719478962637</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E32" t="n">
-        <v>627.0719478962637</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F32" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
         <v>44.49822504924753</v>
@@ -6703,16 +6703,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L32" t="n">
-        <v>1100.603903091853</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M32" t="n">
-        <v>1100.603903091853</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N32" t="n">
-        <v>1100.603903091853</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O32" t="n">
         <v>1100.603903091853</v>
@@ -6727,25 +6727,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.421837588626</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W32" t="n">
-        <v>1867.421837588626</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X32" t="n">
-        <v>1455.701838756373</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y32" t="n">
-        <v>1050.364568711263</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
         <v>1853.185855629757</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.7875610435608</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C34" t="n">
-        <v>207.8149979224768</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924753</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
         <v>44.49822504924753</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T34" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U34" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V34" t="n">
-        <v>1313.712598447566</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W34" t="n">
-        <v>1038.860194620079</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X34" t="n">
-        <v>796.2962980658845</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y34" t="n">
-        <v>569.9535297556265</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C35" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D35" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E35" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F35" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G35" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
         <v>44.49822504924753</v>
@@ -6940,25 +6940,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.160237973755</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M35" t="n">
-        <v>1218.160237973755</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N35" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O35" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
         <v>2224.911252462377</v>
@@ -6979,10 +6979,10 @@
         <v>991.7500075300184</v>
       </c>
       <c r="X35" t="n">
-        <v>781.6025372422929</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y35" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L36" t="n">
-        <v>287.7093087981016</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M36" t="n">
-        <v>287.7093087981016</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N36" t="n">
-        <v>838.3748437825398</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O36" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>729.0902991667042</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>557.1177360456202</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="G37" t="n">
         <v>288.0630618008172</v>
@@ -7116,31 +7116,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T37" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U37" t="n">
-        <v>2007.737591668684</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V37" t="n">
-        <v>2007.737591668684</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>919.2562678787699</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.8143502793759</v>
+        <v>2078.557947296184</v>
       </c>
       <c r="C38" t="n">
-        <v>44.49822504924753</v>
+        <v>1651.657217309483</v>
       </c>
       <c r="D38" t="n">
-        <v>44.49822504924753</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
         <v>44.49822504924753</v>
@@ -7183,7 +7183,7 @@
         <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N38" t="n">
         <v>2107.354917580474</v>
@@ -7201,25 +7201,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V38" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W38" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X38" t="n">
-        <v>475.662714570906</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.662714570906</v>
+        <v>2078.557947296184</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L39" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M39" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N39" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O39" t="n">
         <v>756.3555336978366</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>626.1818057320246</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C40" t="n">
-        <v>626.1818057320246</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D40" t="n">
-        <v>626.1818057320246</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
         <v>44.49822504924753</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X40" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.1818057320246</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1620.368455224655</v>
+        <v>333.2593601902432</v>
       </c>
       <c r="C41" t="n">
-        <v>1193.467725237955</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.467725237955</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E41" t="n">
-        <v>767.4907853858125</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F41" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G41" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H41" t="n">
         <v>44.49822504924753</v>
@@ -7414,25 +7414,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>407.101683866143</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N41" t="n">
-        <v>957.7672188505812</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O41" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P41" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
         <v>2224.911252462377</v>
@@ -7444,19 +7444,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V41" t="n">
-        <v>2040.216819516185</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W41" t="n">
-        <v>2040.216819516185</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.216819516185</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y41" t="n">
-        <v>2040.216819516185</v>
+        <v>753.1077244817733</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K42" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L42" t="n">
-        <v>1307.021068682275</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.021068682275</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.021068682275</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O42" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P42" t="n">
         <v>1307.021068682275</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>485.7509513926031</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
         <v>216.3599992746871</v>
@@ -7596,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>902.2596884149267</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>675.9169201046687</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1813.191253630124</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C44" t="n">
-        <v>1386.290523643424</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D44" t="n">
-        <v>1228.364596494484</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E44" t="n">
         <v>802.3876566423413</v>
@@ -7648,25 +7648,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>44.49822504924753</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>44.49822504924753</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N44" t="n">
-        <v>595.1637600336857</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O44" t="n">
-        <v>1145.829295018124</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P44" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q44" t="n">
         <v>2107.354917580474</v>
@@ -7675,25 +7675,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.191253630124</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y44" t="n">
-        <v>1813.191253630124</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M45" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N45" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O45" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
         <v>1853.185855629757</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>388.3325623957711</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C46" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D46" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E46" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924753</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924753</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924753</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="I46" t="n">
         <v>44.49822504924753</v>
@@ -7833,25 +7833,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.153515691443</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U46" t="n">
-        <v>1603.969067191748</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.257599799776</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>1047.405195972289</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X46" t="n">
-        <v>804.8412994180946</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y46" t="n">
-        <v>578.4985311078367</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>548.1209608588846</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>541.2748327507026</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>205.7998844961774</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8236,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>462.5747547263934</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8552,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8692,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>108.094208435838</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>180.7888499740228</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9187,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>549.2245073196783</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>591.9924139104035</v>
@@ -9409,16 +9409,16 @@
         <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>300.4545145390017</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>179.6167914733347</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P23" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,16 +9716,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9734,13 +9734,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.498939971083</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10114,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L29" t="n">
         <v>38.31204243262292</v>
@@ -10123,7 +10123,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>593.6187724716183</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10196,25 +10196,25 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>462.5747547263934</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
         <v>593.8031749258255</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M33" t="n">
-        <v>268.7645418748068</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10448,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>298.7878524343791</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O35" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L36" t="n">
-        <v>268.1828480767084</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10907,16 +10907,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>178.4700015426657</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P39" t="n">
         <v>577.9986543204228</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,10 +11153,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>467.7777678727252</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11381,10 +11381,10 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.749947452071</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>311.9892743636162</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>51.23370742488966</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>153.4739695386585</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,19 +22789,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>270.674887942116</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22843,16 +22843,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>267.6904791623325</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -23001,13 +23001,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>60.11859830455651</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -23083,13 +23083,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>322.029140388025</v>
+        <v>16.77429460364459</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,13 +23232,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>2.326677470262922</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>18.4496713308867</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>255.4058996719149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>244.7845315750819</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>358.8843281012952</v>
+        <v>265.6902026991313</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23512,10 +23512,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402022</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.0409969354273</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>237.5395686139427</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>59.37454630891094</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>333.5711012311757</v>
+        <v>306.1559860839951</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>106.2105945228215</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>44.64613243500554</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
@@ -24268,10 +24268,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>320.4798063035074</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>59.8656014308179</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>404.4604362583145</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>362.7674300335106</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.9882506157208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>183.74476891219</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>63.73057826458722</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>244.4206261603936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>262.0136204014378</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>63.52994056050443</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>199.556803259082</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>59.91387765085224</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>411.4287587090058</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>256.3941252301275</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.7641609568372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>136.7581988972472</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25684,19 +25684,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>171.0670321082833</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>68.10191868181128</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7130267293988</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>337.5720642604118</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034948</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034948</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034949</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034951</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034951</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034949</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483585.0141034948</v>
+        <v>483585.0141034951</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034951</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483585.0141034949</v>
+        <v>483585.014103495</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034949</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>483585.014103495</v>
+        <v>483585.0141034951</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="C2" t="n">
         <v>152470.9723568845</v>
@@ -26322,7 +26322,7 @@
         <v>152470.9723568845</v>
       </c>
       <c r="E2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="F2" t="n">
         <v>152470.9723568846</v>
@@ -26337,16 +26337,16 @@
         <v>152470.9723568845</v>
       </c>
       <c r="J2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="K2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="L2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="M2" t="n">
-        <v>152470.9723568846</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="N2" t="n">
         <v>152470.9723568845</v>
@@ -26355,7 +26355,7 @@
         <v>152470.9723568845</v>
       </c>
       <c r="P2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568846</v>
       </c>
     </row>
     <row r="3">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="C4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="D4" t="n">
+        <v>43571.76943387372</v>
+      </c>
+      <c r="E4" t="n">
         <v>43571.76943387373</v>
-      </c>
-      <c r="E4" t="n">
-        <v>43571.76943387372</v>
       </c>
       <c r="F4" t="n">
         <v>43571.76943387373</v>
@@ -26453,13 +26453,13 @@
         <v>43571.76943387373</v>
       </c>
       <c r="N4" t="n">
+        <v>43571.76943387373</v>
+      </c>
+      <c r="O4" t="n">
         <v>43571.76943387372</v>
       </c>
-      <c r="O4" t="n">
-        <v>43571.76943387373</v>
-      </c>
       <c r="P4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144951.7815291546</v>
+        <v>-145560.8272416442</v>
       </c>
       <c r="C6" t="n">
-        <v>41452.95188558268</v>
+        <v>40843.90617309298</v>
       </c>
       <c r="D6" t="n">
-        <v>41452.95188558268</v>
+        <v>40843.90617309303</v>
       </c>
       <c r="E6" t="n">
-        <v>75080.5518855827</v>
+        <v>74471.50617309305</v>
       </c>
       <c r="F6" t="n">
-        <v>75080.55188558271</v>
+        <v>74471.50617309308</v>
       </c>
       <c r="G6" t="n">
-        <v>75080.55188558262</v>
+        <v>74471.50617309302</v>
       </c>
       <c r="H6" t="n">
-        <v>75080.55188558265</v>
+        <v>74471.50617309299</v>
       </c>
       <c r="I6" t="n">
-        <v>75080.55188558265</v>
+        <v>74471.50617309302</v>
       </c>
       <c r="J6" t="n">
-        <v>-70453.11804923386</v>
+        <v>-71062.16376172347</v>
       </c>
       <c r="K6" t="n">
-        <v>75080.55188558268</v>
+        <v>74471.50617309305</v>
       </c>
       <c r="L6" t="n">
-        <v>75080.55188558268</v>
+        <v>74471.50617309302</v>
       </c>
       <c r="M6" t="n">
-        <v>75080.55188558271</v>
+        <v>74471.50617309302</v>
       </c>
       <c r="N6" t="n">
-        <v>75080.55188558267</v>
+        <v>74471.50617309302</v>
       </c>
       <c r="O6" t="n">
-        <v>75080.55188558262</v>
+        <v>74471.506173093</v>
       </c>
       <c r="P6" t="n">
-        <v>75080.55188558268</v>
+        <v>74471.50617309306</v>
       </c>
     </row>
   </sheetData>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>519.9318045371609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35412,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M14" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N14" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>73.06155854104156</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="P15" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L15" t="n">
-        <v>158.2737632597932</v>
-      </c>
-      <c r="M15" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N15" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35886,20 +35886,20 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N17" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O17" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
@@ -35907,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>527.4536661148496</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>556.2278131155941</v>
@@ -36129,16 +36129,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P23" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,16 +36436,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.7519016821045</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O26" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N26" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M27" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N27" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>556.2278131155941</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
@@ -36916,25 +36916,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O32" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L32" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>556.2278131155941</v>
@@ -37144,20 +37144,20 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="M33" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M33" t="n">
-        <v>245.6677613624788</v>
-      </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O35" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L36" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="N38" t="n">
         <v>48.74406945557187</v>
-      </c>
-      <c r="N38" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>155.2981118204435</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P39" t="n">
         <v>556.2278131155941</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>444.605878150503</v>
+      </c>
+      <c r="P42" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L42" t="n">
-        <v>444.6058781505029</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38101,10 +38101,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
